--- a/eco_mapping_summary/out/Footprint_CEM_MC.xlsx
+++ b/eco_mapping_summary/out/Footprint_CEM_MC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/701b89dbe10b03f1/Documents/R-Working/TEM-PEM-EU-Summary/out/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.matheson\Documents\R_working\BBFM\eco_mapping_summary\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{FBB6996C-96AF-4386-959E-D678CB544F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA906E1E-E6BA-49A0-98A8-31A76292B226}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C36C7E-1CF7-46D9-9C04-A3A17883DAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Footprint_CEM_MC" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1947,7 +1947,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -2313,7 +2313,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2381,7 +2380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>613.71594331903657</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>49.453916507775425</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>338.10694541704106</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>41.636857205369466</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>441.5208460302776</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>124.38424583528084</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>753.39625169257351</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>1134.0250200694627</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>11</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>2680.7766444833337</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>12</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>93.046203981174443</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>13</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>371.4497383272477</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>14</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>107.33601921339043</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>15</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>130.06500049459828</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>16</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>69.797230977514815</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>17</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>409.88379184972462</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>18</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>1.6531133197262919</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>19</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>60.963507639018331</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>20</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>48.680142570775423</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>21</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>114.3618418499014</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>22</v>
       </c>
@@ -3361,7 +3360,7 @@
         <v>44.013588614284963</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>23</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>392.55001944862107</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>24</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>140.24543739755433</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>25</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>12.13181840874425</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>101</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>5.0500924673800496</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>102</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>50.473671879514228</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>105</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>2.3468551619312699</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>201</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>2.8317500844266501</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>202</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>3.3010993915461602</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>301</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>19.894429887588799</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>302</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>25.273158930658902</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>303</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>6.9247298655710301</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>304</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>30.200729455661602</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>305</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>6.7332733393580702</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>309</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>2.4647365360840801</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>108</v>
       </c>
@@ -5120,13 +5119,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O57" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Non-vegetated/Anthropogenic Ecosystems"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
